--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1042,7 +1042,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001688519913547766</v>
+        <v>0.001657746690306145</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02055561734268622</v>
+        <v>0.01863219660589015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03806189244913891</v>
+        <v>0.03985587113416277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02295799175379194</v>
+        <v>0.01973799824106022</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01645063653937896</v>
+        <v>0.01668289832355702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007353709996274925</v>
+        <v>0.006831494191075167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01467115304798379</v>
+        <v>0.01404026925127949</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06408960954518647</v>
+        <v>0.06690178291003787</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03544928222397202</v>
+        <v>0.03337858047572141</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04234054434160584</v>
+        <v>0.04012628381737848</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.03290965382130532</v>
+        <v>0.03290965382130531</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02175093758995129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02730186383292084</v>
+        <v>0.02730186383292083</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01956189145023073</v>
+        <v>0.01952076774298375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01327086598060942</v>
+        <v>0.01383771651313842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01954487711744748</v>
+        <v>0.01897060658504583</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05141965803774844</v>
+        <v>0.05176694953714647</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03220530390959606</v>
+        <v>0.03435973403446995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03726824037175427</v>
+        <v>0.03809728404755562</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03430147314656161</v>
+        <v>0.03527493061662913</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04644469871122322</v>
+        <v>0.04608799117069137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04473175464880434</v>
+        <v>0.04353341015080782</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07055939027364722</v>
+        <v>0.06897034317932568</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07373103063362227</v>
+        <v>0.0728167363945809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06534544258524551</v>
+        <v>0.06512391310715882</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05459054941539166</v>
+        <v>0.05459054941539165</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.06740508482077849</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03899436353748596</v>
+        <v>0.03849315106786164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05258560353742654</v>
+        <v>0.05363107009599492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0489471994303454</v>
+        <v>0.05091041300806694</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07632849358308545</v>
+        <v>0.07460266110891653</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08568593326139751</v>
+        <v>0.08481162159765084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07303188869405682</v>
+        <v>0.07481076390765809</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06260473297450299</v>
+        <v>0.06442478472168783</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04162918830231258</v>
+        <v>0.04112223704102791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05683343228123181</v>
+        <v>0.05617819940442418</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1099690752701486</v>
+        <v>0.1077357653491316</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07479331840635411</v>
+        <v>0.07374257930440201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08517154122803518</v>
+        <v>0.08589369765813377</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04435047377984498</v>
+        <v>0.04170901104523654</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03120594292407295</v>
+        <v>0.0315891582624075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04160669548371868</v>
+        <v>0.04187535572729831</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0909317283230211</v>
+        <v>0.09235958218502927</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0626613697164172</v>
+        <v>0.06170347353854857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06647584582286538</v>
+        <v>0.06744547544011006</v>
       </c>
     </row>
     <row r="25">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.04569654256769697</v>
+        <v>0.04569654256769698</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.0419652390601206</v>
+        <v>0.04196523906012059</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.04377038503102697</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03852676153307166</v>
+        <v>0.03881968156981967</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03661132277906447</v>
+        <v>0.03731273843166451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03933987689343808</v>
+        <v>0.03960369249466342</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05268756337736302</v>
+        <v>0.05320177167037374</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04765435471996157</v>
+        <v>0.04744086703201664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04785496954853194</v>
+        <v>0.04840834539789479</v>
       </c>
     </row>
     <row r="28">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1219</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7788</v>
+        <v>7059</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13064</v>
+        <v>13680</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16578</v>
+        <v>14253</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7335</v>
+        <v>7439</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3549</v>
+        <v>3297</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13622</v>
+        <v>13036</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28577</v>
+        <v>29831</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17108</v>
+        <v>16109</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39313</v>
+        <v>37257</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11759</v>
+        <v>11734</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8059</v>
+        <v>8403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23618</v>
+        <v>22924</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30910</v>
+        <v>31118</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19558</v>
+        <v>20866</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45035</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23267</v>
+        <v>23927</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33522</v>
+        <v>33264</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>62627</v>
+        <v>60949</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47860</v>
+        <v>46783</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53216</v>
+        <v>52556</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91487</v>
+        <v>91177</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23138</v>
+        <v>22840</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31333</v>
+        <v>31956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58208</v>
+        <v>60543</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>45290</v>
+        <v>44266</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>51056</v>
+        <v>50535</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>86850</v>
+        <v>88965</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>24901</v>
+        <v>25625</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>17856</v>
+        <v>17638</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46982</v>
+        <v>46441</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>43740</v>
+        <v>42851</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32081</v>
+        <v>31630</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>70409</v>
+        <v>71006</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13412</v>
+        <v>12613</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13911</v>
+        <v>14082</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31130</v>
+        <v>31331</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27499</v>
+        <v>27930</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27934</v>
+        <v>27507</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49737</v>
+        <v>50462</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>130902</v>
+        <v>131897</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>132732</v>
+        <v>135275</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>276289</v>
+        <v>278142</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>179015</v>
+        <v>180762</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>172768</v>
+        <v>171994</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>336091</v>
+        <v>339978</v>
       </c>
     </row>
     <row r="36">
